--- a/local/templates/jury/JurySheet.xlsx
+++ b/local/templates/jury/JurySheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/usaw-owlcms/local/templates/jury/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3986C53-DD85-A640-932D-1216BD34C22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CFEFD-27F5-8945-A4C7-AD9484B8E2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8660" yWindow="500" windowWidth="32300" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="CategoryFilter">Jury!#REF!</definedName>
     <definedName name="CLUB">Jury!#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Jury!$A$1:$BV$63</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Jury!$A$1:$BV$64</definedName>
     <definedName name="demandé">Jury!#REF!</definedName>
     <definedName name="dernier">Jury!#REF!</definedName>
     <definedName name="essais">Jury!#REF!</definedName>
@@ -55,7 +55,7 @@
     <definedName name="TAS">Jury!#REF!</definedName>
     <definedName name="tirage">Jury!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -84,7 +84,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">  lastCell="W14"
+          <t xml:space="preserve">  lastCell="W15"
 </t>
         </r>
         <r>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>${competition.competitionName}</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Session ${session.name} - ${session.ageGroupInfo.0.formattedRange}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jury President Signature  </t>
   </si>
 </sst>
 </file>
@@ -509,7 +512,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -645,6 +648,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -693,8 +699,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -816,7 +836,7 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206464" cy="313295"/>
@@ -835,6 +855,171 @@
         <a:xfrm>
           <a:off x="16256000" y="8636000"/>
           <a:ext cx="206464" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206464" cy="313295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FAD592A-A0CD-3648-8371-80ECDF03D1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319000" y="3844636"/>
+          <a:ext cx="206464" cy="313295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206464" cy="313295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A38A6B-6BAA-2F46-99D5-D9539540AB35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319000" y="4202545"/>
+          <a:ext cx="206464" cy="313295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="206464" cy="313295"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB95612-2384-B146-A73A-4D7D61AEE97F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319000" y="4202545"/>
+          <a:ext cx="206464" cy="313295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,7 +1406,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:W1"/>
@@ -1247,31 +1432,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:27" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
@@ -1293,12 +1478,12 @@
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
       <c r="V2" s="15"/>
       <c r="W2" s="3" t="s">
         <v>11</v>
@@ -1349,20 +1534,20 @@
       <c r="M4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="57" t="s">
+      <c r="N4" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="58"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="57" t="s">
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="58"/>
-      <c r="T4" s="58"/>
-      <c r="U4" s="58"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="52"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:27" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
@@ -1380,13 +1565,13 @@
       <c r="E5" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="19" t="s">
         <v>17</v>
       </c>
@@ -1447,13 +1632,13 @@
       <c r="E6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="49"/>
       <c r="K6" s="23" t="s">
         <v>10</v>
       </c>
@@ -1479,10 +1664,10 @@
       <c r="AA6"/>
     </row>
     <row r="7" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="29"/>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -1510,10 +1695,10 @@
       <c r="W7" s="15"/>
     </row>
     <row r="8" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -1539,10 +1724,10 @@
       <c r="W8" s="36"/>
     </row>
     <row r="9" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="54"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -1597,10 +1782,10 @@
       <c r="W10" s="37"/>
     </row>
     <row r="11" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="29"/>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -1626,10 +1811,10 @@
       <c r="W11" s="37"/>
     </row>
     <row r="12" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -1674,8 +1859,8 @@
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="5"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
       <c r="T13" s="32"/>
       <c r="U13" s="31"/>
       <c r="V13" s="22"/>
@@ -1708,27 +1893,61 @@
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+    <row r="15" spans="1:27" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+    </row>
+    <row r="17" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+    </row>
+    <row r="18" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="9:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1762,6 +1981,7 @@
     <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="13">
